--- a/artfynd/A 62684-2025 artfynd.xlsx
+++ b/artfynd/A 62684-2025 artfynd.xlsx
@@ -790,7 +790,7 @@
         <v>130746559</v>
       </c>
       <c r="B3" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>130746553</v>
       </c>
       <c r="B4" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1088,10 +1088,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130746558</v>
+        <v>130746493</v>
       </c>
       <c r="B6" t="n">
-        <v>79239</v>
+        <v>57881</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1099,34 +1099,42 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>447718</v>
+        <v>447766</v>
       </c>
       <c r="R6" t="n">
-        <v>6784468</v>
+        <v>6784433</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1185,40 +1193,41 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130746493</v>
+        <v>130746520</v>
       </c>
       <c r="B7" t="n">
-        <v>57877</v>
+        <v>8451</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100049</v>
+        <v>106545</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="N7" t="inlineStr"/>
@@ -1228,10 +1237,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>447766</v>
+        <v>447846</v>
       </c>
       <c r="R7" t="n">
-        <v>6784433</v>
+        <v>6784643</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1272,6 +1281,7 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1290,54 +1300,45 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130746520</v>
+        <v>130746558</v>
       </c>
       <c r="B8" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>447846</v>
+        <v>447718</v>
       </c>
       <c r="R8" t="n">
-        <v>6784643</v>
+        <v>6784468</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1378,7 +1379,6 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>130746498</v>
       </c>
       <c r="B9" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1505,7 +1505,7 @@
         <v>130746562</v>
       </c>
       <c r="B10" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>130746551</v>
       </c>
       <c r="B14" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2017,45 +2017,54 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130746570</v>
+        <v>130746525</v>
       </c>
       <c r="B15" t="n">
-        <v>79239</v>
+        <v>8451</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>447857</v>
+        <v>447933</v>
       </c>
       <c r="R15" t="n">
-        <v>6784524</v>
+        <v>6784552</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2096,6 +2105,7 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2114,10 +2124,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130746554</v>
+        <v>130746570</v>
       </c>
       <c r="B16" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2143,19 +2153,16 @@
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>447915</v>
+        <v>447857</v>
       </c>
       <c r="R16" t="n">
-        <v>6784490</v>
+        <v>6784524</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2196,7 +2203,6 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2215,10 +2221,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130746499</v>
+        <v>130746554</v>
       </c>
       <c r="B17" t="n">
-        <v>57877</v>
+        <v>79243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2226,31 +2232,26 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2258,10 +2259,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>447930</v>
+        <v>447915</v>
       </c>
       <c r="R17" t="n">
-        <v>6784568</v>
+        <v>6784490</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2302,6 +2303,7 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2320,10 +2322,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130746500</v>
+        <v>130746499</v>
       </c>
       <c r="B18" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2363,10 +2365,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>447888</v>
+        <v>447930</v>
       </c>
       <c r="R18" t="n">
-        <v>6784627</v>
+        <v>6784568</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2425,41 +2427,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130746525</v>
+        <v>130746500</v>
       </c>
       <c r="B19" t="n">
-        <v>8451</v>
+        <v>57881</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>106545</v>
+        <v>100049</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N19" t="inlineStr"/>
@@ -2469,10 +2470,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>447933</v>
+        <v>447888</v>
       </c>
       <c r="R19" t="n">
-        <v>6784552</v>
+        <v>6784627</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2513,7 +2514,6 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2532,37 +2532,42 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130746546</v>
+        <v>130746490</v>
       </c>
       <c r="B20" t="n">
-        <v>92242</v>
+        <v>58043</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5420</v>
+        <v>103021</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Phaeolus schweinitzii</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Pat.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2570,10 +2575,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>447898</v>
+        <v>447888</v>
       </c>
       <c r="R20" t="n">
-        <v>6784612</v>
+        <v>6784627</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2614,7 +2619,6 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -2633,42 +2637,37 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130746490</v>
+        <v>130746546</v>
       </c>
       <c r="B21" t="n">
-        <v>58039</v>
+        <v>92246</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>103021</v>
+        <v>5420</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Phaeolus schweinitzii</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Fr.) Pat.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2676,10 +2675,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>447888</v>
+        <v>447898</v>
       </c>
       <c r="R21" t="n">
-        <v>6784627</v>
+        <v>6784612</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2720,6 +2719,7 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>130746556</v>
       </c>
       <c r="B23" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3049,45 +3049,54 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130746564</v>
+        <v>130746515</v>
       </c>
       <c r="B25" t="n">
-        <v>79239</v>
+        <v>8451</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>447866</v>
+        <v>447716</v>
       </c>
       <c r="R25" t="n">
-        <v>6784648</v>
+        <v>6784496</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3128,6 +3137,7 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3146,45 +3156,54 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130746569</v>
+        <v>130746518</v>
       </c>
       <c r="B26" t="n">
-        <v>79239</v>
+        <v>8451</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>447856</v>
+        <v>447815</v>
       </c>
       <c r="R26" t="n">
-        <v>6784518</v>
+        <v>6784612</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3225,6 +3244,7 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3243,54 +3263,45 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130746515</v>
+        <v>130746564</v>
       </c>
       <c r="B27" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>447716</v>
+        <v>447866</v>
       </c>
       <c r="R27" t="n">
-        <v>6784496</v>
+        <v>6784648</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3331,7 +3342,6 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
-      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -3350,54 +3360,45 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130746518</v>
+        <v>130746569</v>
       </c>
       <c r="B28" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>447815</v>
+        <v>447856</v>
       </c>
       <c r="R28" t="n">
-        <v>6784612</v>
+        <v>6784518</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3438,7 +3439,6 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
-      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>130746496</v>
       </c>
       <c r="B29" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3776,45 +3776,54 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130746555</v>
+        <v>130746523</v>
       </c>
       <c r="B32" t="n">
-        <v>79239</v>
+        <v>8451</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>447906</v>
+        <v>447940</v>
       </c>
       <c r="R32" t="n">
-        <v>6784505</v>
+        <v>6784589</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3855,6 +3864,7 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
+      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
@@ -3873,40 +3883,41 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130746497</v>
+        <v>130746516</v>
       </c>
       <c r="B33" t="n">
-        <v>57877</v>
+        <v>8451</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>100049</v>
+        <v>106545</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="N33" t="inlineStr"/>
@@ -3916,10 +3927,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>447838</v>
+        <v>447725</v>
       </c>
       <c r="R33" t="n">
-        <v>6784644</v>
+        <v>6784696</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3960,6 +3971,7 @@
       <c r="AE33" t="b">
         <v>0</v>
       </c>
+      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
       </c>
@@ -3978,54 +3990,45 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130746523</v>
+        <v>130746555</v>
       </c>
       <c r="B34" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>447940</v>
+        <v>447906</v>
       </c>
       <c r="R34" t="n">
-        <v>6784589</v>
+        <v>6784505</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4066,7 +4069,6 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
-      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
@@ -4085,41 +4087,40 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130746516</v>
+        <v>130746497</v>
       </c>
       <c r="B35" t="n">
-        <v>8451</v>
+        <v>57881</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>106545</v>
+        <v>100049</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N35" t="inlineStr"/>
@@ -4129,10 +4130,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>447725</v>
+        <v>447838</v>
       </c>
       <c r="R35" t="n">
-        <v>6784696</v>
+        <v>6784644</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4173,7 +4174,6 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
-      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
       </c>
@@ -4192,45 +4192,54 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130746560</v>
+        <v>130746506</v>
       </c>
       <c r="B36" t="n">
-        <v>79239</v>
+        <v>8451</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>447685</v>
+        <v>447826</v>
       </c>
       <c r="R36" t="n">
-        <v>6784529</v>
+        <v>6784573</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4271,6 +4280,7 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
+      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
       </c>
@@ -4289,10 +4299,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130746565</v>
+        <v>130746560</v>
       </c>
       <c r="B37" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4324,10 +4334,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>447912</v>
+        <v>447685</v>
       </c>
       <c r="R37" t="n">
-        <v>6784599</v>
+        <v>6784529</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4386,10 +4396,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>130746561</v>
+        <v>130746565</v>
       </c>
       <c r="B38" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4421,10 +4431,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>447711</v>
+        <v>447912</v>
       </c>
       <c r="R38" t="n">
-        <v>6784677</v>
+        <v>6784599</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4483,54 +4493,45 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>130746506</v>
+        <v>130746561</v>
       </c>
       <c r="B39" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>447826</v>
+        <v>447711</v>
       </c>
       <c r="R39" t="n">
-        <v>6784573</v>
+        <v>6784677</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4571,7 +4572,6 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
-      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>130746563</v>
       </c>
       <c r="B41" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>130746566</v>
       </c>
       <c r="B42" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4891,41 +4891,40 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130746511</v>
+        <v>130746495</v>
       </c>
       <c r="B43" t="n">
-        <v>8451</v>
+        <v>57881</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>106545</v>
+        <v>100049</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N43" t="inlineStr"/>
@@ -4935,10 +4934,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>447748</v>
+        <v>447746</v>
       </c>
       <c r="R43" t="n">
-        <v>6784472</v>
+        <v>6784474</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -4979,7 +4978,6 @@
       <c r="AE43" t="b">
         <v>0</v>
       </c>
-      <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="b">
         <v>0</v>
       </c>
@@ -4998,40 +4996,41 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130746495</v>
+        <v>130746511</v>
       </c>
       <c r="B44" t="n">
-        <v>57877</v>
+        <v>8451</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>100049</v>
+        <v>106545</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="N44" t="inlineStr"/>
@@ -5041,10 +5040,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>447746</v>
+        <v>447748</v>
       </c>
       <c r="R44" t="n">
-        <v>6784474</v>
+        <v>6784472</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5085,6 +5084,7 @@
       <c r="AE44" t="b">
         <v>0</v>
       </c>
+      <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="b">
         <v>0</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>130746552</v>
       </c>
       <c r="B47" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>

--- a/artfynd/A 62684-2025 artfynd.xlsx
+++ b/artfynd/A 62684-2025 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY47"/>
+  <dimension ref="A1:AY50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -884,45 +884,54 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130746553</v>
+        <v>130746522</v>
       </c>
       <c r="B4" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>447903</v>
+        <v>447866</v>
       </c>
       <c r="R4" t="n">
-        <v>6784473</v>
+        <v>6784597</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -963,6 +972,7 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -981,54 +991,45 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130746522</v>
+        <v>130746553</v>
       </c>
       <c r="B5" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>447866</v>
+        <v>447903</v>
       </c>
       <c r="R5" t="n">
-        <v>6784597</v>
+        <v>6784473</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1069,7 +1070,6 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1088,10 +1088,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130746493</v>
+        <v>130746558</v>
       </c>
       <c r="B6" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1099,42 +1099,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>447766</v>
+        <v>447718</v>
       </c>
       <c r="R6" t="n">
-        <v>6784433</v>
+        <v>6784468</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1193,41 +1185,40 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130746520</v>
+        <v>130746493</v>
       </c>
       <c r="B7" t="n">
-        <v>8451</v>
+        <v>57881</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>106545</v>
+        <v>100049</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N7" t="inlineStr"/>
@@ -1237,10 +1228,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>447846</v>
+        <v>447766</v>
       </c>
       <c r="R7" t="n">
-        <v>6784643</v>
+        <v>6784433</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1281,7 +1272,6 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1300,45 +1290,54 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130746558</v>
+        <v>130746520</v>
       </c>
       <c r="B8" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>447718</v>
+        <v>447846</v>
       </c>
       <c r="R8" t="n">
-        <v>6784468</v>
+        <v>6784643</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1379,6 +1378,7 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1502,45 +1502,54 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130746562</v>
+        <v>130746524</v>
       </c>
       <c r="B10" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>447730</v>
+        <v>447932</v>
       </c>
       <c r="R10" t="n">
-        <v>6784717</v>
+        <v>6784551</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1581,6 +1590,7 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1599,7 +1609,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130746524</v>
+        <v>130746530</v>
       </c>
       <c r="B11" t="n">
         <v>8451</v>
@@ -1643,10 +1653,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>447932</v>
+        <v>447855</v>
       </c>
       <c r="R11" t="n">
-        <v>6784551</v>
+        <v>6784599</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1706,7 +1716,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130746530</v>
+        <v>130746519</v>
       </c>
       <c r="B12" t="n">
         <v>8451</v>
@@ -1740,7 +1750,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
@@ -1750,10 +1760,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>447855</v>
+        <v>447826</v>
       </c>
       <c r="R12" t="n">
-        <v>6784599</v>
+        <v>6784623</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1813,54 +1823,45 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130746519</v>
+        <v>130746562</v>
       </c>
       <c r="B13" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>447826</v>
+        <v>447730</v>
       </c>
       <c r="R13" t="n">
-        <v>6784623</v>
+        <v>6784717</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1901,7 +1902,6 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2017,54 +2017,45 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130746525</v>
+        <v>130746570</v>
       </c>
       <c r="B15" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>447933</v>
+        <v>447857</v>
       </c>
       <c r="R15" t="n">
-        <v>6784552</v>
+        <v>6784524</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2105,7 +2096,6 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2124,7 +2114,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130746570</v>
+        <v>130746554</v>
       </c>
       <c r="B16" t="n">
         <v>79243</v>
@@ -2153,16 +2143,19 @@
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>447857</v>
+        <v>447915</v>
       </c>
       <c r="R16" t="n">
-        <v>6784524</v>
+        <v>6784490</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2203,6 +2196,7 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2221,10 +2215,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130746554</v>
+        <v>130746500</v>
       </c>
       <c r="B17" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2232,26 +2226,31 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2259,10 +2258,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>447915</v>
+        <v>447888</v>
       </c>
       <c r="R17" t="n">
-        <v>6784490</v>
+        <v>6784627</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2303,7 +2302,6 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
-      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2427,40 +2425,41 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130746500</v>
+        <v>130746525</v>
       </c>
       <c r="B19" t="n">
-        <v>57881</v>
+        <v>8451</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100049</v>
+        <v>106545</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="N19" t="inlineStr"/>
@@ -2470,10 +2469,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>447888</v>
+        <v>447933</v>
       </c>
       <c r="R19" t="n">
-        <v>6784627</v>
+        <v>6784552</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2514,6 +2513,7 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2845,45 +2845,54 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130746556</v>
+        <v>130746510</v>
       </c>
       <c r="B23" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>447876</v>
+        <v>447718</v>
       </c>
       <c r="R23" t="n">
-        <v>6784529</v>
+        <v>6784441</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2924,6 +2933,7 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -2942,54 +2952,45 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130746510</v>
+        <v>130746556</v>
       </c>
       <c r="B24" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>447718</v>
+        <v>447876</v>
       </c>
       <c r="R24" t="n">
-        <v>6784441</v>
+        <v>6784529</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3030,7 +3031,6 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
-      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3049,54 +3049,45 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130746515</v>
+        <v>130746564</v>
       </c>
       <c r="B25" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>447716</v>
+        <v>447866</v>
       </c>
       <c r="R25" t="n">
-        <v>6784496</v>
+        <v>6784648</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3137,7 +3128,6 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
-      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3156,54 +3146,45 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130746518</v>
+        <v>130746569</v>
       </c>
       <c r="B26" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>447815</v>
+        <v>447856</v>
       </c>
       <c r="R26" t="n">
-        <v>6784612</v>
+        <v>6784518</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3244,7 +3225,6 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
-      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3263,45 +3243,54 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130746564</v>
+        <v>130746515</v>
       </c>
       <c r="B27" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>447866</v>
+        <v>447716</v>
       </c>
       <c r="R27" t="n">
-        <v>6784648</v>
+        <v>6784496</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3342,6 +3331,7 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
+      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -3360,45 +3350,54 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130746569</v>
+        <v>130746518</v>
       </c>
       <c r="B28" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>447856</v>
+        <v>447815</v>
       </c>
       <c r="R28" t="n">
-        <v>6784518</v>
+        <v>6784612</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3439,6 +3438,7 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
@@ -4192,54 +4192,45 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130746506</v>
+        <v>130746560</v>
       </c>
       <c r="B36" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>447826</v>
+        <v>447685</v>
       </c>
       <c r="R36" t="n">
-        <v>6784573</v>
+        <v>6784529</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4280,7 +4271,6 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
-      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
       </c>
@@ -4299,7 +4289,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130746560</v>
+        <v>130746565</v>
       </c>
       <c r="B37" t="n">
         <v>79243</v>
@@ -4334,10 +4324,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>447685</v>
+        <v>447912</v>
       </c>
       <c r="R37" t="n">
-        <v>6784529</v>
+        <v>6784599</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4396,7 +4386,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>130746565</v>
+        <v>130746561</v>
       </c>
       <c r="B38" t="n">
         <v>79243</v>
@@ -4431,10 +4421,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>447912</v>
+        <v>447711</v>
       </c>
       <c r="R38" t="n">
-        <v>6784599</v>
+        <v>6784677</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4493,45 +4483,54 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>130746561</v>
+        <v>130746506</v>
       </c>
       <c r="B39" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>447711</v>
+        <v>447826</v>
       </c>
       <c r="R39" t="n">
-        <v>6784677</v>
+        <v>6784573</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4572,6 +4571,7 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
+      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
@@ -5412,6 +5412,332 @@
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>131073028</v>
+      </c>
+      <c r="B48" t="n">
+        <v>8451</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>106545</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Tomicus minor</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Evertsbergsvägen öst, Evertsbergsvägen öst, Dlr</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>447573</v>
+      </c>
+      <c r="R48" t="n">
+        <v>6784308</v>
+      </c>
+      <c r="S48" t="n">
+        <v>10</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Älvdalen</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Älvdalen</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>12:17</t>
+        </is>
+      </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>12:17</t>
+        </is>
+      </c>
+      <c r="AD48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT48" t="inlineStr"/>
+      <c r="AW48" t="inlineStr">
+        <is>
+          <t>Eva Löfqvist</t>
+        </is>
+      </c>
+      <c r="AX48" t="inlineStr">
+        <is>
+          <t>Eva Löfqvist</t>
+        </is>
+      </c>
+      <c r="AY48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>131073156</v>
+      </c>
+      <c r="B49" t="n">
+        <v>79243</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Evertsbergsvägen öst, Evertsbergsvägen öst, Dlr</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>447572</v>
+      </c>
+      <c r="R49" t="n">
+        <v>6784666</v>
+      </c>
+      <c r="S49" t="n">
+        <v>10</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Älvdalen</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Älvdalen</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>12:24</t>
+        </is>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>12:24</t>
+        </is>
+      </c>
+      <c r="AD49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT49" t="inlineStr"/>
+      <c r="AW49" t="inlineStr">
+        <is>
+          <t>Eva Löfqvist</t>
+        </is>
+      </c>
+      <c r="AX49" t="inlineStr">
+        <is>
+          <t>Eva Löfqvist</t>
+        </is>
+      </c>
+      <c r="AY49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>131073209</v>
+      </c>
+      <c r="B50" t="n">
+        <v>79243</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Evertsbergsvägen öst, Evertsbergsvägen öst, Dlr</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>447552</v>
+      </c>
+      <c r="R50" t="n">
+        <v>6784648</v>
+      </c>
+      <c r="S50" t="n">
+        <v>10</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Älvdalen</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Älvdalen</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>12:26</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>12:26</t>
+        </is>
+      </c>
+      <c r="AD50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT50" t="inlineStr"/>
+      <c r="AW50" t="inlineStr">
+        <is>
+          <t>Eva Löfqvist</t>
+        </is>
+      </c>
+      <c r="AX50" t="inlineStr">
+        <is>
+          <t>Eva Löfqvist</t>
+        </is>
+      </c>
+      <c r="AY50" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 62684-2025 artfynd.xlsx
+++ b/artfynd/A 62684-2025 artfynd.xlsx
@@ -1088,45 +1088,54 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130746558</v>
+        <v>130746520</v>
       </c>
       <c r="B6" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>447718</v>
+        <v>447846</v>
       </c>
       <c r="R6" t="n">
-        <v>6784468</v>
+        <v>6784643</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1167,6 +1176,7 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1185,10 +1195,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130746493</v>
+        <v>130746558</v>
       </c>
       <c r="B7" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1196,42 +1206,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>447766</v>
+        <v>447718</v>
       </c>
       <c r="R7" t="n">
-        <v>6784433</v>
+        <v>6784468</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1290,41 +1292,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130746520</v>
+        <v>130746493</v>
       </c>
       <c r="B8" t="n">
-        <v>8451</v>
+        <v>57881</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>106545</v>
+        <v>100049</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N8" t="inlineStr"/>
@@ -1334,10 +1335,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>447846</v>
+        <v>447766</v>
       </c>
       <c r="R8" t="n">
-        <v>6784643</v>
+        <v>6784433</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1378,7 +1379,6 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -2532,40 +2532,41 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130746490</v>
+        <v>130746531</v>
       </c>
       <c r="B20" t="n">
-        <v>58043</v>
+        <v>8451</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>103021</v>
+        <v>106545</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>lockläte, övriga läten</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="N20" t="inlineStr"/>
@@ -2575,10 +2576,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>447888</v>
+        <v>447932</v>
       </c>
       <c r="R20" t="n">
-        <v>6784627</v>
+        <v>6784555</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2619,6 +2620,7 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -2738,41 +2740,40 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130746531</v>
+        <v>130746490</v>
       </c>
       <c r="B22" t="n">
-        <v>8451</v>
+        <v>58043</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>106545</v>
+        <v>103021</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="N22" t="inlineStr"/>
@@ -2782,10 +2783,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>447932</v>
+        <v>447888</v>
       </c>
       <c r="R22" t="n">
-        <v>6784555</v>
+        <v>6784627</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2826,7 +2827,6 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
-      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -3457,40 +3457,41 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130746496</v>
+        <v>130746521</v>
       </c>
       <c r="B29" t="n">
-        <v>57881</v>
+        <v>8451</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100049</v>
+        <v>106545</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="N29" t="inlineStr"/>
@@ -3500,10 +3501,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>447817</v>
+        <v>447834</v>
       </c>
       <c r="R29" t="n">
-        <v>6784636</v>
+        <v>6784604</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3544,6 +3545,7 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -3562,41 +3564,40 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130746521</v>
+        <v>130746496</v>
       </c>
       <c r="B30" t="n">
-        <v>8451</v>
+        <v>57881</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>106545</v>
+        <v>100049</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N30" t="inlineStr"/>
@@ -3606,10 +3607,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>447834</v>
+        <v>447817</v>
       </c>
       <c r="R30" t="n">
-        <v>6784604</v>
+        <v>6784636</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3650,7 +3651,6 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
-      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
@@ -4192,45 +4192,54 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130746560</v>
+        <v>130746506</v>
       </c>
       <c r="B36" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>447685</v>
+        <v>447826</v>
       </c>
       <c r="R36" t="n">
-        <v>6784529</v>
+        <v>6784573</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4271,6 +4280,7 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
+      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
       </c>
@@ -4289,7 +4299,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130746565</v>
+        <v>130746560</v>
       </c>
       <c r="B37" t="n">
         <v>79243</v>
@@ -4324,10 +4334,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>447912</v>
+        <v>447685</v>
       </c>
       <c r="R37" t="n">
-        <v>6784599</v>
+        <v>6784529</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4386,7 +4396,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>130746561</v>
+        <v>130746565</v>
       </c>
       <c r="B38" t="n">
         <v>79243</v>
@@ -4421,10 +4431,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>447711</v>
+        <v>447912</v>
       </c>
       <c r="R38" t="n">
-        <v>6784677</v>
+        <v>6784599</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4483,54 +4493,45 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>130746506</v>
+        <v>130746561</v>
       </c>
       <c r="B39" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>447826</v>
+        <v>447711</v>
       </c>
       <c r="R39" t="n">
-        <v>6784573</v>
+        <v>6784677</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4571,7 +4572,6 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
-      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
@@ -4697,10 +4697,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>130746563</v>
+        <v>130746495</v>
       </c>
       <c r="B41" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4708,34 +4708,42 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>447832</v>
+        <v>447746</v>
       </c>
       <c r="R41" t="n">
-        <v>6784636</v>
+        <v>6784474</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4794,7 +4802,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>130746566</v>
+        <v>130746563</v>
       </c>
       <c r="B42" t="n">
         <v>79243</v>
@@ -4829,10 +4837,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>447949</v>
+        <v>447832</v>
       </c>
       <c r="R42" t="n">
-        <v>6784550</v>
+        <v>6784636</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -4891,10 +4899,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130746495</v>
+        <v>130746566</v>
       </c>
       <c r="B43" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4902,42 +4910,34 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>447746</v>
+        <v>447949</v>
       </c>
       <c r="R43" t="n">
-        <v>6784474</v>
+        <v>6784550</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>

--- a/artfynd/A 62684-2025 artfynd.xlsx
+++ b/artfynd/A 62684-2025 artfynd.xlsx
@@ -1502,7 +1502,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130746524</v>
+        <v>130746519</v>
       </c>
       <c r="B10" t="n">
         <v>8451</v>
@@ -1536,7 +1536,7 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="N10" t="inlineStr"/>
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>447932</v>
+        <v>447826</v>
       </c>
       <c r="R10" t="n">
-        <v>6784551</v>
+        <v>6784623</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1716,54 +1716,45 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130746519</v>
+        <v>130746562</v>
       </c>
       <c r="B12" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>447826</v>
+        <v>447730</v>
       </c>
       <c r="R12" t="n">
-        <v>6784623</v>
+        <v>6784717</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1804,7 +1795,6 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -1823,45 +1813,54 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130746562</v>
+        <v>130746524</v>
       </c>
       <c r="B13" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>447730</v>
+        <v>447932</v>
       </c>
       <c r="R13" t="n">
-        <v>6784717</v>
+        <v>6784551</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1902,6 +1901,7 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2114,10 +2114,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130746554</v>
+        <v>130746499</v>
       </c>
       <c r="B16" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2125,26 +2125,31 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2152,10 +2157,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>447915</v>
+        <v>447930</v>
       </c>
       <c r="R16" t="n">
-        <v>6784490</v>
+        <v>6784568</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2196,7 +2201,6 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2215,10 +2219,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130746500</v>
+        <v>130746554</v>
       </c>
       <c r="B17" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2226,31 +2230,26 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2258,10 +2257,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>447888</v>
+        <v>447915</v>
       </c>
       <c r="R17" t="n">
-        <v>6784627</v>
+        <v>6784490</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2302,6 +2301,7 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2320,7 +2320,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130746499</v>
+        <v>130746500</v>
       </c>
       <c r="B18" t="n">
         <v>57881</v>
@@ -2363,10 +2363,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>447930</v>
+        <v>447888</v>
       </c>
       <c r="R18" t="n">
-        <v>6784568</v>
+        <v>6784627</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -3049,45 +3049,54 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130746564</v>
+        <v>130746515</v>
       </c>
       <c r="B25" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>447866</v>
+        <v>447716</v>
       </c>
       <c r="R25" t="n">
-        <v>6784648</v>
+        <v>6784496</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3128,6 +3137,7 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3146,45 +3156,54 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130746569</v>
+        <v>130746518</v>
       </c>
       <c r="B26" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>447856</v>
+        <v>447815</v>
       </c>
       <c r="R26" t="n">
-        <v>6784518</v>
+        <v>6784612</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3225,6 +3244,7 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3243,54 +3263,45 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130746515</v>
+        <v>130746569</v>
       </c>
       <c r="B27" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>447716</v>
+        <v>447856</v>
       </c>
       <c r="R27" t="n">
-        <v>6784496</v>
+        <v>6784518</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3331,7 +3342,6 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
-      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -3350,54 +3360,45 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130746518</v>
+        <v>130746564</v>
       </c>
       <c r="B28" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>447815</v>
+        <v>447866</v>
       </c>
       <c r="R28" t="n">
-        <v>6784612</v>
+        <v>6784648</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3438,7 +3439,6 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
-      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
@@ -3457,41 +3457,40 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130746521</v>
+        <v>130746496</v>
       </c>
       <c r="B29" t="n">
-        <v>8451</v>
+        <v>57881</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>106545</v>
+        <v>100049</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N29" t="inlineStr"/>
@@ -3501,10 +3500,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>447834</v>
+        <v>447817</v>
       </c>
       <c r="R29" t="n">
-        <v>6784604</v>
+        <v>6784636</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3545,7 +3544,6 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
-      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -3564,40 +3562,41 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130746496</v>
+        <v>130746521</v>
       </c>
       <c r="B30" t="n">
-        <v>57881</v>
+        <v>8451</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100049</v>
+        <v>106545</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="N30" t="inlineStr"/>
@@ -3607,10 +3606,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>447817</v>
+        <v>447834</v>
       </c>
       <c r="R30" t="n">
-        <v>6784636</v>
+        <v>6784604</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3651,6 +3650,7 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
+      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
@@ -3776,41 +3776,40 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130746523</v>
+        <v>130746497</v>
       </c>
       <c r="B32" t="n">
-        <v>8451</v>
+        <v>57881</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>106545</v>
+        <v>100049</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N32" t="inlineStr"/>
@@ -3820,10 +3819,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>447940</v>
+        <v>447838</v>
       </c>
       <c r="R32" t="n">
-        <v>6784589</v>
+        <v>6784644</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3864,7 +3863,6 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
-      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
@@ -3990,45 +3988,54 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130746555</v>
+        <v>130746523</v>
       </c>
       <c r="B34" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>447906</v>
+        <v>447940</v>
       </c>
       <c r="R34" t="n">
-        <v>6784505</v>
+        <v>6784589</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4069,6 +4076,7 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
+      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
@@ -4087,10 +4095,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130746497</v>
+        <v>130746555</v>
       </c>
       <c r="B35" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4098,42 +4106,34 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>447838</v>
+        <v>447906</v>
       </c>
       <c r="R35" t="n">
-        <v>6784644</v>
+        <v>6784505</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4192,54 +4192,45 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130746506</v>
+        <v>130746565</v>
       </c>
       <c r="B36" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>447826</v>
+        <v>447912</v>
       </c>
       <c r="R36" t="n">
-        <v>6784573</v>
+        <v>6784599</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4280,7 +4271,6 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
-      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
       </c>
@@ -4396,7 +4386,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>130746565</v>
+        <v>130746561</v>
       </c>
       <c r="B38" t="n">
         <v>79243</v>
@@ -4431,10 +4421,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>447912</v>
+        <v>447711</v>
       </c>
       <c r="R38" t="n">
-        <v>6784599</v>
+        <v>6784677</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4493,45 +4483,54 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>130746561</v>
+        <v>130746506</v>
       </c>
       <c r="B39" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>447711</v>
+        <v>447826</v>
       </c>
       <c r="R39" t="n">
-        <v>6784677</v>
+        <v>6784573</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4572,6 +4571,7 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
+      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
@@ -4899,45 +4899,54 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130746566</v>
+        <v>130746511</v>
       </c>
       <c r="B43" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>447949</v>
+        <v>447748</v>
       </c>
       <c r="R43" t="n">
-        <v>6784550</v>
+        <v>6784472</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -4978,6 +4987,7 @@
       <c r="AE43" t="b">
         <v>0</v>
       </c>
+      <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="b">
         <v>0</v>
       </c>
@@ -4996,54 +5006,45 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130746511</v>
+        <v>130746566</v>
       </c>
       <c r="B44" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>447748</v>
+        <v>447949</v>
       </c>
       <c r="R44" t="n">
-        <v>6784472</v>
+        <v>6784550</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5084,7 +5085,6 @@
       <c r="AE44" t="b">
         <v>0</v>
       </c>
-      <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 62684-2025 artfynd.xlsx
+++ b/artfynd/A 62684-2025 artfynd.xlsx
@@ -1088,41 +1088,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130746520</v>
+        <v>130746493</v>
       </c>
       <c r="B6" t="n">
-        <v>8451</v>
+        <v>57881</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>106545</v>
+        <v>100049</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N6" t="inlineStr"/>
@@ -1132,10 +1131,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>447846</v>
+        <v>447766</v>
       </c>
       <c r="R6" t="n">
-        <v>6784643</v>
+        <v>6784433</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1176,7 +1175,6 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1292,40 +1290,41 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130746493</v>
+        <v>130746520</v>
       </c>
       <c r="B8" t="n">
-        <v>57881</v>
+        <v>8451</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100049</v>
+        <v>106545</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="N8" t="inlineStr"/>
@@ -1335,10 +1334,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>447766</v>
+        <v>447846</v>
       </c>
       <c r="R8" t="n">
-        <v>6784433</v>
+        <v>6784643</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1379,6 +1378,7 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1502,54 +1502,45 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130746519</v>
+        <v>130746562</v>
       </c>
       <c r="B10" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>447826</v>
+        <v>447730</v>
       </c>
       <c r="R10" t="n">
-        <v>6784623</v>
+        <v>6784717</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1590,7 +1581,6 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1609,7 +1599,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130746530</v>
+        <v>130746524</v>
       </c>
       <c r="B11" t="n">
         <v>8451</v>
@@ -1653,10 +1643,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>447855</v>
+        <v>447932</v>
       </c>
       <c r="R11" t="n">
-        <v>6784599</v>
+        <v>6784551</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1716,45 +1706,54 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130746562</v>
+        <v>130746530</v>
       </c>
       <c r="B12" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>447730</v>
+        <v>447855</v>
       </c>
       <c r="R12" t="n">
-        <v>6784717</v>
+        <v>6784599</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1795,6 +1794,7 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130746524</v>
+        <v>130746519</v>
       </c>
       <c r="B13" t="n">
         <v>8451</v>
@@ -1847,7 +1847,7 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="N13" t="inlineStr"/>
@@ -1857,10 +1857,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>447932</v>
+        <v>447826</v>
       </c>
       <c r="R13" t="n">
-        <v>6784551</v>
+        <v>6784623</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2114,10 +2114,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130746499</v>
+        <v>130746554</v>
       </c>
       <c r="B16" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2125,31 +2125,26 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2157,10 +2152,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>447930</v>
+        <v>447915</v>
       </c>
       <c r="R16" t="n">
-        <v>6784568</v>
+        <v>6784490</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2201,6 +2196,7 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2219,37 +2215,43 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130746554</v>
+        <v>130746525</v>
       </c>
       <c r="B17" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2257,10 +2259,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>447915</v>
+        <v>447933</v>
       </c>
       <c r="R17" t="n">
-        <v>6784490</v>
+        <v>6784552</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2320,7 +2322,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130746500</v>
+        <v>130746499</v>
       </c>
       <c r="B18" t="n">
         <v>57881</v>
@@ -2363,10 +2365,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>447888</v>
+        <v>447930</v>
       </c>
       <c r="R18" t="n">
-        <v>6784627</v>
+        <v>6784568</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2425,41 +2427,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130746525</v>
+        <v>130746500</v>
       </c>
       <c r="B19" t="n">
-        <v>8451</v>
+        <v>57881</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>106545</v>
+        <v>100049</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N19" t="inlineStr"/>
@@ -2469,10 +2470,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>447933</v>
+        <v>447888</v>
       </c>
       <c r="R19" t="n">
-        <v>6784552</v>
+        <v>6784627</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2513,7 +2514,6 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2532,10 +2532,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130746531</v>
+        <v>130746546</v>
       </c>
       <c r="B20" t="n">
-        <v>8451</v>
+        <v>92246</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2543,32 +2543,26 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>106545</v>
+        <v>5420</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Phaeolus schweinitzii</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Fr.) Pat.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2576,10 +2570,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>447932</v>
+        <v>447898</v>
       </c>
       <c r="R20" t="n">
-        <v>6784555</v>
+        <v>6784612</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2639,37 +2633,42 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130746546</v>
+        <v>130746490</v>
       </c>
       <c r="B21" t="n">
-        <v>92246</v>
+        <v>58043</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5420</v>
+        <v>103021</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Phaeolus schweinitzii</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Pat.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2677,10 +2676,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>447898</v>
+        <v>447888</v>
       </c>
       <c r="R21" t="n">
-        <v>6784612</v>
+        <v>6784627</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2721,7 +2720,6 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -2740,40 +2738,41 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130746490</v>
+        <v>130746531</v>
       </c>
       <c r="B22" t="n">
-        <v>58043</v>
+        <v>8451</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>103021</v>
+        <v>106545</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>lockläte, övriga läten</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="N22" t="inlineStr"/>
@@ -2783,10 +2782,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>447888</v>
+        <v>447932</v>
       </c>
       <c r="R22" t="n">
-        <v>6784627</v>
+        <v>6784555</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2827,6 +2826,7 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -2845,54 +2845,45 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130746510</v>
+        <v>130746556</v>
       </c>
       <c r="B23" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>447718</v>
+        <v>447876</v>
       </c>
       <c r="R23" t="n">
-        <v>6784441</v>
+        <v>6784529</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2933,7 +2924,6 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -2952,45 +2942,54 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130746556</v>
+        <v>130746510</v>
       </c>
       <c r="B24" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>447876</v>
+        <v>447718</v>
       </c>
       <c r="R24" t="n">
-        <v>6784529</v>
+        <v>6784441</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3031,6 +3030,7 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3049,54 +3049,45 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130746515</v>
+        <v>130746564</v>
       </c>
       <c r="B25" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>447716</v>
+        <v>447866</v>
       </c>
       <c r="R25" t="n">
-        <v>6784496</v>
+        <v>6784648</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3137,7 +3128,6 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
-      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3156,54 +3146,45 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130746518</v>
+        <v>130746569</v>
       </c>
       <c r="B26" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>447815</v>
+        <v>447856</v>
       </c>
       <c r="R26" t="n">
-        <v>6784612</v>
+        <v>6784518</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3244,7 +3225,6 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
-      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3263,45 +3243,54 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130746569</v>
+        <v>130746515</v>
       </c>
       <c r="B27" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>447856</v>
+        <v>447716</v>
       </c>
       <c r="R27" t="n">
-        <v>6784518</v>
+        <v>6784496</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3342,6 +3331,7 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
+      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -3360,45 +3350,54 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130746564</v>
+        <v>130746518</v>
       </c>
       <c r="B28" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>447866</v>
+        <v>447815</v>
       </c>
       <c r="R28" t="n">
-        <v>6784648</v>
+        <v>6784612</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3439,6 +3438,7 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
@@ -3776,40 +3776,41 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130746497</v>
+        <v>130746523</v>
       </c>
       <c r="B32" t="n">
-        <v>57881</v>
+        <v>8451</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100049</v>
+        <v>106545</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="N32" t="inlineStr"/>
@@ -3819,10 +3820,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>447838</v>
+        <v>447940</v>
       </c>
       <c r="R32" t="n">
-        <v>6784644</v>
+        <v>6784589</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3863,6 +3864,7 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
+      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
@@ -3988,54 +3990,45 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130746523</v>
+        <v>130746555</v>
       </c>
       <c r="B34" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>447940</v>
+        <v>447906</v>
       </c>
       <c r="R34" t="n">
-        <v>6784589</v>
+        <v>6784505</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4076,7 +4069,6 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
-      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
@@ -4095,10 +4087,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130746555</v>
+        <v>130746497</v>
       </c>
       <c r="B35" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4106,34 +4098,42 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>447906</v>
+        <v>447838</v>
       </c>
       <c r="R35" t="n">
-        <v>6784505</v>
+        <v>6784644</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4192,7 +4192,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130746565</v>
+        <v>130746560</v>
       </c>
       <c r="B36" t="n">
         <v>79243</v>
@@ -4227,10 +4227,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>447912</v>
+        <v>447685</v>
       </c>
       <c r="R36" t="n">
-        <v>6784599</v>
+        <v>6784529</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4289,7 +4289,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130746560</v>
+        <v>130746565</v>
       </c>
       <c r="B37" t="n">
         <v>79243</v>
@@ -4324,10 +4324,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>447685</v>
+        <v>447912</v>
       </c>
       <c r="R37" t="n">
-        <v>6784529</v>
+        <v>6784599</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4697,10 +4697,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>130746495</v>
+        <v>130746563</v>
       </c>
       <c r="B41" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4708,42 +4708,34 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>447746</v>
+        <v>447832</v>
       </c>
       <c r="R41" t="n">
-        <v>6784474</v>
+        <v>6784636</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4802,7 +4794,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>130746563</v>
+        <v>130746566</v>
       </c>
       <c r="B42" t="n">
         <v>79243</v>
@@ -4837,10 +4829,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>447832</v>
+        <v>447949</v>
       </c>
       <c r="R42" t="n">
-        <v>6784636</v>
+        <v>6784550</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -4899,41 +4891,40 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130746511</v>
+        <v>130746495</v>
       </c>
       <c r="B43" t="n">
-        <v>8451</v>
+        <v>57881</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>106545</v>
+        <v>100049</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N43" t="inlineStr"/>
@@ -4943,10 +4934,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>447748</v>
+        <v>447746</v>
       </c>
       <c r="R43" t="n">
-        <v>6784472</v>
+        <v>6784474</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -4987,7 +4978,6 @@
       <c r="AE43" t="b">
         <v>0</v>
       </c>
-      <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="b">
         <v>0</v>
       </c>
@@ -5006,45 +4996,54 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130746566</v>
+        <v>130746511</v>
       </c>
       <c r="B44" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>447949</v>
+        <v>447748</v>
       </c>
       <c r="R44" t="n">
-        <v>6784550</v>
+        <v>6784472</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5085,6 +5084,7 @@
       <c r="AE44" t="b">
         <v>0</v>
       </c>
+      <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 62684-2025 artfynd.xlsx
+++ b/artfynd/A 62684-2025 artfynd.xlsx
@@ -884,54 +884,45 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130746522</v>
+        <v>130746553</v>
       </c>
       <c r="B4" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>447866</v>
+        <v>447903</v>
       </c>
       <c r="R4" t="n">
-        <v>6784597</v>
+        <v>6784473</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -972,7 +963,6 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -991,45 +981,54 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130746553</v>
+        <v>130746522</v>
       </c>
       <c r="B5" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>447903</v>
+        <v>447866</v>
       </c>
       <c r="R5" t="n">
-        <v>6784473</v>
+        <v>6784597</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1070,6 +1069,7 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1088,10 +1088,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130746493</v>
+        <v>130746558</v>
       </c>
       <c r="B6" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1099,42 +1099,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>447766</v>
+        <v>447718</v>
       </c>
       <c r="R6" t="n">
-        <v>6784433</v>
+        <v>6784468</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1193,10 +1185,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130746558</v>
+        <v>130746493</v>
       </c>
       <c r="B7" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1204,34 +1196,42 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>447718</v>
+        <v>447766</v>
       </c>
       <c r="R7" t="n">
-        <v>6784468</v>
+        <v>6784433</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1502,45 +1502,54 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130746562</v>
+        <v>130746524</v>
       </c>
       <c r="B10" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>447730</v>
+        <v>447932</v>
       </c>
       <c r="R10" t="n">
-        <v>6784717</v>
+        <v>6784551</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1581,6 +1590,7 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1599,7 +1609,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130746524</v>
+        <v>130746530</v>
       </c>
       <c r="B11" t="n">
         <v>8451</v>
@@ -1643,10 +1653,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>447932</v>
+        <v>447855</v>
       </c>
       <c r="R11" t="n">
-        <v>6784551</v>
+        <v>6784599</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1706,7 +1716,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130746530</v>
+        <v>130746519</v>
       </c>
       <c r="B12" t="n">
         <v>8451</v>
@@ -1740,7 +1750,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
@@ -1750,10 +1760,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>447855</v>
+        <v>447826</v>
       </c>
       <c r="R12" t="n">
-        <v>6784599</v>
+        <v>6784623</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1813,54 +1823,45 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130746519</v>
+        <v>130746562</v>
       </c>
       <c r="B13" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>447826</v>
+        <v>447730</v>
       </c>
       <c r="R13" t="n">
-        <v>6784623</v>
+        <v>6784717</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1901,7 +1902,6 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2017,45 +2017,54 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130746570</v>
+        <v>130746525</v>
       </c>
       <c r="B15" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>447857</v>
+        <v>447933</v>
       </c>
       <c r="R15" t="n">
-        <v>6784524</v>
+        <v>6784552</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2096,6 +2105,7 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2114,7 +2124,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130746554</v>
+        <v>130746570</v>
       </c>
       <c r="B16" t="n">
         <v>79243</v>
@@ -2143,19 +2153,16 @@
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>447915</v>
+        <v>447857</v>
       </c>
       <c r="R16" t="n">
-        <v>6784490</v>
+        <v>6784524</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2196,7 +2203,6 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2215,43 +2221,37 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130746525</v>
+        <v>130746554</v>
       </c>
       <c r="B17" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2259,10 +2259,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>447933</v>
+        <v>447915</v>
       </c>
       <c r="R17" t="n">
-        <v>6784552</v>
+        <v>6784490</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2532,37 +2532,42 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130746546</v>
+        <v>130746490</v>
       </c>
       <c r="B20" t="n">
-        <v>92246</v>
+        <v>58043</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5420</v>
+        <v>103021</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Phaeolus schweinitzii</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Pat.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2570,10 +2575,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>447898</v>
+        <v>447888</v>
       </c>
       <c r="R20" t="n">
-        <v>6784612</v>
+        <v>6784627</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2614,7 +2619,6 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -2633,40 +2637,41 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130746490</v>
+        <v>130746531</v>
       </c>
       <c r="B21" t="n">
-        <v>58043</v>
+        <v>8451</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>103021</v>
+        <v>106545</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>lockläte, övriga läten</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="N21" t="inlineStr"/>
@@ -2676,10 +2681,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>447888</v>
+        <v>447932</v>
       </c>
       <c r="R21" t="n">
-        <v>6784627</v>
+        <v>6784555</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2720,6 +2725,7 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -2738,10 +2744,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130746531</v>
+        <v>130746546</v>
       </c>
       <c r="B22" t="n">
-        <v>8451</v>
+        <v>92246</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2749,32 +2755,26 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>106545</v>
+        <v>5420</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Phaeolus schweinitzii</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Fr.) Pat.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>447932</v>
+        <v>447898</v>
       </c>
       <c r="R22" t="n">
-        <v>6784555</v>
+        <v>6784612</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2845,45 +2845,54 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130746556</v>
+        <v>130746510</v>
       </c>
       <c r="B23" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>447876</v>
+        <v>447718</v>
       </c>
       <c r="R23" t="n">
-        <v>6784529</v>
+        <v>6784441</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2924,6 +2933,7 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -2942,54 +2952,45 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130746510</v>
+        <v>130746556</v>
       </c>
       <c r="B24" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>447718</v>
+        <v>447876</v>
       </c>
       <c r="R24" t="n">
-        <v>6784441</v>
+        <v>6784529</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3030,7 +3031,6 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
-      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3049,45 +3049,54 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130746564</v>
+        <v>130746515</v>
       </c>
       <c r="B25" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>447866</v>
+        <v>447716</v>
       </c>
       <c r="R25" t="n">
-        <v>6784648</v>
+        <v>6784496</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3128,6 +3137,7 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3146,45 +3156,54 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130746569</v>
+        <v>130746518</v>
       </c>
       <c r="B26" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>447856</v>
+        <v>447815</v>
       </c>
       <c r="R26" t="n">
-        <v>6784518</v>
+        <v>6784612</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3225,6 +3244,7 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3243,54 +3263,45 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130746515</v>
+        <v>130746564</v>
       </c>
       <c r="B27" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>447716</v>
+        <v>447866</v>
       </c>
       <c r="R27" t="n">
-        <v>6784496</v>
+        <v>6784648</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3331,7 +3342,6 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
-      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -3350,54 +3360,45 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130746518</v>
+        <v>130746569</v>
       </c>
       <c r="B28" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>447815</v>
+        <v>447856</v>
       </c>
       <c r="R28" t="n">
-        <v>6784612</v>
+        <v>6784518</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3438,7 +3439,6 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
-      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
@@ -3776,54 +3776,45 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130746523</v>
+        <v>130746555</v>
       </c>
       <c r="B32" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>447940</v>
+        <v>447906</v>
       </c>
       <c r="R32" t="n">
-        <v>6784589</v>
+        <v>6784505</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3864,7 +3855,6 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
-      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
@@ -3883,41 +3873,40 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130746516</v>
+        <v>130746497</v>
       </c>
       <c r="B33" t="n">
-        <v>8451</v>
+        <v>57881</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>106545</v>
+        <v>100049</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N33" t="inlineStr"/>
@@ -3927,10 +3916,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>447725</v>
+        <v>447838</v>
       </c>
       <c r="R33" t="n">
-        <v>6784696</v>
+        <v>6784644</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3971,7 +3960,6 @@
       <c r="AE33" t="b">
         <v>0</v>
       </c>
-      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
       </c>
@@ -3990,45 +3978,54 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130746555</v>
+        <v>130746516</v>
       </c>
       <c r="B34" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>447906</v>
+        <v>447725</v>
       </c>
       <c r="R34" t="n">
-        <v>6784505</v>
+        <v>6784696</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4069,6 +4066,7 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
+      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
@@ -4087,40 +4085,41 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130746497</v>
+        <v>130746523</v>
       </c>
       <c r="B35" t="n">
-        <v>57881</v>
+        <v>8451</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>100049</v>
+        <v>106545</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="N35" t="inlineStr"/>
@@ -4130,10 +4129,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>447838</v>
+        <v>447940</v>
       </c>
       <c r="R35" t="n">
-        <v>6784644</v>
+        <v>6784589</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4174,6 +4173,7 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
+      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 62684-2025 artfynd.xlsx
+++ b/artfynd/A 62684-2025 artfynd.xlsx
@@ -2017,54 +2017,45 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130746525</v>
+        <v>130746570</v>
       </c>
       <c r="B15" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>447933</v>
+        <v>447857</v>
       </c>
       <c r="R15" t="n">
-        <v>6784552</v>
+        <v>6784524</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2105,7 +2096,6 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2124,7 +2114,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130746570</v>
+        <v>130746554</v>
       </c>
       <c r="B16" t="n">
         <v>79243</v>
@@ -2153,16 +2143,19 @@
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>447857</v>
+        <v>447915</v>
       </c>
       <c r="R16" t="n">
-        <v>6784524</v>
+        <v>6784490</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2203,6 +2196,7 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2221,10 +2215,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130746554</v>
+        <v>130746499</v>
       </c>
       <c r="B17" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2232,26 +2226,31 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2259,10 +2258,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>447915</v>
+        <v>447930</v>
       </c>
       <c r="R17" t="n">
-        <v>6784490</v>
+        <v>6784568</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2303,7 +2302,6 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
-      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2322,7 +2320,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130746499</v>
+        <v>130746500</v>
       </c>
       <c r="B18" t="n">
         <v>57881</v>
@@ -2365,10 +2363,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>447930</v>
+        <v>447888</v>
       </c>
       <c r="R18" t="n">
-        <v>6784568</v>
+        <v>6784627</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2427,40 +2425,41 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130746500</v>
+        <v>130746525</v>
       </c>
       <c r="B19" t="n">
-        <v>57881</v>
+        <v>8451</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100049</v>
+        <v>106545</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="N19" t="inlineStr"/>
@@ -2470,10 +2469,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>447888</v>
+        <v>447933</v>
       </c>
       <c r="R19" t="n">
-        <v>6784627</v>
+        <v>6784552</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2514,6 +2513,7 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2532,42 +2532,37 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130746490</v>
+        <v>130746546</v>
       </c>
       <c r="B20" t="n">
-        <v>58043</v>
+        <v>92246</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>103021</v>
+        <v>5420</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Phaeolus schweinitzii</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Fr.) Pat.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2575,10 +2570,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>447888</v>
+        <v>447898</v>
       </c>
       <c r="R20" t="n">
-        <v>6784627</v>
+        <v>6784612</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2619,6 +2614,7 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -2637,41 +2633,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130746531</v>
+        <v>130746490</v>
       </c>
       <c r="B21" t="n">
-        <v>8451</v>
+        <v>58043</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>106545</v>
+        <v>103021</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="N21" t="inlineStr"/>
@@ -2681,10 +2676,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>447932</v>
+        <v>447888</v>
       </c>
       <c r="R21" t="n">
-        <v>6784555</v>
+        <v>6784627</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2725,7 +2720,6 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -2744,10 +2738,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130746546</v>
+        <v>130746531</v>
       </c>
       <c r="B22" t="n">
-        <v>92246</v>
+        <v>8451</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2755,26 +2749,32 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5420</v>
+        <v>106545</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Phaeolus schweinitzii</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Pat.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>447898</v>
+        <v>447932</v>
       </c>
       <c r="R22" t="n">
-        <v>6784612</v>
+        <v>6784555</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3049,54 +3049,45 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130746515</v>
+        <v>130746564</v>
       </c>
       <c r="B25" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>447716</v>
+        <v>447866</v>
       </c>
       <c r="R25" t="n">
-        <v>6784496</v>
+        <v>6784648</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3137,7 +3128,6 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
-      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3156,54 +3146,45 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130746518</v>
+        <v>130746569</v>
       </c>
       <c r="B26" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>447815</v>
+        <v>447856</v>
       </c>
       <c r="R26" t="n">
-        <v>6784612</v>
+        <v>6784518</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3244,7 +3225,6 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
-      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3263,45 +3243,54 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130746564</v>
+        <v>130746515</v>
       </c>
       <c r="B27" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>447866</v>
+        <v>447716</v>
       </c>
       <c r="R27" t="n">
-        <v>6784648</v>
+        <v>6784496</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3342,6 +3331,7 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
+      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -3360,45 +3350,54 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130746569</v>
+        <v>130746518</v>
       </c>
       <c r="B28" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
           <t>Evertsbergsvägen öst, Dlr</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>447856</v>
+        <v>447815</v>
       </c>
       <c r="R28" t="n">
-        <v>6784518</v>
+        <v>6784612</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3439,6 +3438,7 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
@@ -3457,40 +3457,41 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130746496</v>
+        <v>130746521</v>
       </c>
       <c r="B29" t="n">
-        <v>57881</v>
+        <v>8451</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100049</v>
+        <v>106545</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="N29" t="inlineStr"/>
@@ -3500,10 +3501,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>447817</v>
+        <v>447834</v>
       </c>
       <c r="R29" t="n">
-        <v>6784636</v>
+        <v>6784604</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3544,6 +3545,7 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -3562,41 +3564,40 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130746521</v>
+        <v>130746496</v>
       </c>
       <c r="B30" t="n">
-        <v>8451</v>
+        <v>57881</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>106545</v>
+        <v>100049</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N30" t="inlineStr"/>
@@ -3606,10 +3607,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>447834</v>
+        <v>447817</v>
       </c>
       <c r="R30" t="n">
-        <v>6784604</v>
+        <v>6784636</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3650,7 +3651,6 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
-      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
@@ -3978,7 +3978,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130746516</v>
+        <v>130746523</v>
       </c>
       <c r="B34" t="n">
         <v>8451</v>
@@ -4022,10 +4022,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>447725</v>
+        <v>447940</v>
       </c>
       <c r="R34" t="n">
-        <v>6784696</v>
+        <v>6784589</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4085,7 +4085,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130746523</v>
+        <v>130746516</v>
       </c>
       <c r="B35" t="n">
         <v>8451</v>
@@ -4129,10 +4129,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>447940</v>
+        <v>447725</v>
       </c>
       <c r="R35" t="n">
-        <v>6784589</v>
+        <v>6784696</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4891,40 +4891,41 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130746495</v>
+        <v>130746511</v>
       </c>
       <c r="B43" t="n">
-        <v>57881</v>
+        <v>8451</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>100049</v>
+        <v>106545</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="N43" t="inlineStr"/>
@@ -4934,10 +4935,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>447746</v>
+        <v>447748</v>
       </c>
       <c r="R43" t="n">
-        <v>6784474</v>
+        <v>6784472</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -4978,6 +4979,7 @@
       <c r="AE43" t="b">
         <v>0</v>
       </c>
+      <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="b">
         <v>0</v>
       </c>
@@ -4996,41 +4998,40 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130746511</v>
+        <v>130746495</v>
       </c>
       <c r="B44" t="n">
-        <v>8451</v>
+        <v>57881</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>106545</v>
+        <v>100049</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N44" t="inlineStr"/>
@@ -5040,10 +5041,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>447748</v>
+        <v>447746</v>
       </c>
       <c r="R44" t="n">
-        <v>6784472</v>
+        <v>6784474</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5084,7 +5085,6 @@
       <c r="AE44" t="b">
         <v>0</v>
       </c>
-      <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 62684-2025 artfynd.xlsx
+++ b/artfynd/A 62684-2025 artfynd.xlsx
@@ -5529,7 +5529,7 @@
         <v>131073156</v>
       </c>
       <c r="B49" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>131073209</v>
       </c>
       <c r="B50" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
